--- a/Dataset/Authors/SALL_hist.xlsx
+++ b/Dataset/Authors/SALL_hist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470EF542-9E2C-412B-B444-4E49AB80AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AFE81-B24C-40BB-B789-7B7D2A309BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6402909C-FAF5-43D5-8D8F-876B70CAC4D6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>C. Sallustius Crispus</t>
   </si>
@@ -139,13 +139,16 @@
   </si>
   <si>
     <t>benefactus</t>
+  </si>
+  <si>
+    <t>semiermis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +190,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -227,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B761573-1826-4D11-BB84-C4D8FAC311BE}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -766,8 +778,8 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
+      <c r="A27" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -775,7 +787,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -783,7 +795,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -791,39 +803,47 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B33">
-    <sortCondition ref="A6:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B34">
+    <sortCondition ref="A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
